--- a/заказы/статистика филиалы/2024/02,24/22,02,24 ПОКОМ КИ филиалы/дв 23,02,24 лгрсч ки.xlsx
+++ b/заказы/статистика филиалы/2024/02,24/22,02,24 ПОКОМ КИ филиалы/дв 23,02,24 лгрсч ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\22,02,24 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\02,24\22,02,24 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D272ABA-D061-4B4C-A3A0-F15C8890826E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D3CA7B-33FF-4949-B9D0-4FCFBDCF943A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AD$112</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="158">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -494,6 +494,18 @@
   <si>
     <t>26,02,</t>
   </si>
+  <si>
+    <t>то же что 054</t>
+  </si>
+  <si>
+    <t>то же что 055 (задвоенное СКЮ)</t>
+  </si>
+  <si>
+    <t>то же что 368</t>
+  </si>
+  <si>
+    <t>то же что 367 (задвоенное СКЮ)</t>
+  </si>
 </sst>
 </file>
 
@@ -931,8 +943,8 @@
   <dimension ref="A1:AY497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
+      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AD15" s="1">
         <f t="shared" si="7"/>
@@ -2474,7 +2486,9 @@
       <c r="AB16" s="1">
         <v>0</v>
       </c>
-      <c r="AC16" s="1"/>
+      <c r="AC16" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="AD16" s="1">
         <f t="shared" si="7"/>
         <v>11.88000000000001</v>
@@ -9568,7 +9582,9 @@
       <c r="AB84" s="1">
         <v>37.799999999999997</v>
       </c>
-      <c r="AC84" s="1"/>
+      <c r="AC84" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="AD84" s="1">
         <f t="shared" si="10"/>
         <v>177.03000000000006</v>
@@ -9665,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="AD85" s="1">
         <f t="shared" si="10"/>
